--- a/imagenes/cartillas/Cartilla-CABA.xlsx
+++ b/imagenes/cartillas/Cartilla-CABA.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="342">
   <si>
     <t>ATENCION MEDICA AMBULATORIA</t>
   </si>
@@ -1049,6 +1049,15 @@
   </si>
   <si>
     <t>AV. CÓRDOBA 2340</t>
+  </si>
+  <si>
+    <t>ENDOCRINOLOGÍA BUENOS AIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Av. Santa Fe 2603 - 3º</t>
+  </si>
+  <si>
+    <t>11-3056-6222</t>
   </si>
 </sst>
 </file>
@@ -1195,9 +1204,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1206,6 +1212,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1513,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G395"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1871,18 +1880,18 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="10"/>
@@ -2007,12 +2016,12 @@
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -2071,7 +2080,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="10"/>
@@ -2135,7 +2144,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B61" s="10"/>
@@ -2185,7 +2194,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B66" s="10"/>
@@ -2249,7 +2258,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B72" s="10"/>
@@ -2313,7 +2322,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B78" s="10"/>
@@ -2377,7 +2386,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B84" s="10"/>
@@ -2413,7 +2422,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B88" s="10"/>
@@ -2463,7 +2472,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="10"/>
@@ -2499,7 +2508,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B97" s="10"/>
@@ -2563,7 +2572,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B103" s="10"/>
@@ -2612,319 +2621,316 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D126" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D130" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -2969,7 +2975,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B142" s="10"/>
@@ -3033,7 +3039,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B148" s="10"/>
@@ -3097,7 +3103,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B154" s="10"/>
@@ -3147,7 +3153,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B159" s="10"/>
@@ -3211,7 +3217,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B165" s="10"/>
@@ -3331,7 +3337,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B175" s="10"/>
@@ -3395,7 +3401,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B181" s="10"/>
@@ -3445,7 +3451,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
+      <c r="A186" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B186" s="10"/>
@@ -3509,7 +3515,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
+      <c r="A192" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B192" s="10"/>
@@ -3573,7 +3579,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
+      <c r="A198" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B198" s="10"/>
@@ -3637,7 +3643,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
+      <c r="A204" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B204" s="10"/>
@@ -3687,7 +3693,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B209" s="10"/>
@@ -3765,7 +3771,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B216" s="10"/>
@@ -3829,7 +3835,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B222" s="10"/>
@@ -3893,7 +3899,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="12" t="s">
+      <c r="A228" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B228" s="10"/>
@@ -3957,7 +3963,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="12" t="s">
+      <c r="A234" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B234" s="10"/>
@@ -4007,7 +4013,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="13" t="s">
+      <c r="A239" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B239" s="10"/>
@@ -4071,7 +4077,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="12" t="s">
+      <c r="A245" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B245" s="10"/>
@@ -4135,7 +4141,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B251" s="10"/>
@@ -4199,12 +4205,12 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="11" t="s">
+      <c r="A258" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
@@ -4221,18 +4227,18 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="11" t="s">
+      <c r="A261" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
     </row>
     <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="12" t="s">
+      <c r="A262" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B262" s="10"/>
@@ -4338,18 +4344,18 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="11" t="s">
+      <c r="A271" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="12" t="s">
+      <c r="A272" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B272" s="10"/>
@@ -4469,7 +4475,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="12" t="s">
+      <c r="A282" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B282" s="10"/>
@@ -4575,7 +4581,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="12" t="s">
+      <c r="A291" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B291" s="10"/>
@@ -4709,7 +4715,7 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="12" t="s">
+      <c r="A302" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B302" s="10"/>
@@ -4843,15 +4849,15 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A313" s="11" t="s">
+      <c r="A313" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B313" s="11"/>
-      <c r="C313" s="11"/>
-      <c r="D313" s="11"/>
-      <c r="E313" s="11"/>
-      <c r="F313" s="11"/>
-      <c r="G313" s="11"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
     </row>
     <row r="314" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
@@ -5022,15 +5028,15 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A327" s="11" t="s">
+      <c r="A327" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B327" s="11"/>
-      <c r="C327" s="11"/>
-      <c r="D327" s="11"/>
-      <c r="E327" s="11"/>
-      <c r="F327" s="11"/>
-      <c r="G327" s="11"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="14"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
@@ -5418,15 +5424,15 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A364" s="11" t="s">
+      <c r="A364" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B364" s="11"/>
-      <c r="C364" s="11"/>
-      <c r="D364" s="11"/>
-      <c r="E364" s="11"/>
-      <c r="F364" s="11"/>
-      <c r="G364" s="11"/>
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="14"/>
+      <c r="F364" s="14"/>
+      <c r="G364" s="14"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
